--- a/SupplementaryTables/Table S3.xlsx
+++ b/SupplementaryTables/Table S3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skn/Dropbox/Diabetes_FinalSubmission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skn/Dropbox/Diabetes_FinalSubmission_RemoveBatchEffectArtifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2CC4A7CB-8512-854D-9FDB-22E7D9E40CCD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5E628217-5D7F-6E49-80D8-D0F505CDCC2B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="1160" windowWidth="41920" windowHeight="24240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24620" yWindow="5460" windowWidth="24380" windowHeight="20140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Table S3: Meta data and associated statistics of the 10 islets used for differential analyses</t>
   </si>
@@ -114,20 +114,26 @@
     <t>T2D5</t>
   </si>
   <si>
-    <t>NR -&gt; Not Reported</t>
-  </si>
-  <si>
     <t>Sample</t>
   </si>
   <si>
     <t>pvalue (wilcoxon rank sum)</t>
+  </si>
+  <si>
+    <t>W = white, AA = African American; H = Hispanic</t>
+  </si>
+  <si>
+    <t>NR = Not Reported</t>
+  </si>
+  <si>
+    <t>Abbreviations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,14 +152,6 @@
     <font>
       <b/>
       <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -187,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,9 +199,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -213,6 +208,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,7 +509,7 @@
     <col min="4" max="5" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
+    <col min="8" max="8" width="41" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="3"/>
     <col min="10" max="10" width="12.83203125" style="3" customWidth="1"/>
     <col min="11" max="13" width="13.1640625" style="3" customWidth="1"/>
@@ -516,14 +517,14 @@
     <col min="15" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -543,8 +544,11 @@
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -566,8 +570,11 @@
       <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -589,8 +596,11 @@
       <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -613,7 +623,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -623,7 +633,7 @@
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="4">
@@ -636,7 +646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -659,7 +669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -678,11 +688,11 @@
       <c r="F8" s="4">
         <v>35.799999999999997</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>5.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -705,7 +715,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -728,7 +738,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -751,7 +761,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -774,12 +784,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
@@ -792,8 +797,8 @@
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>30</v>
+      <c r="F16" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -848,7 +853,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
